--- a/Project.WebApplication/TemplateFile/考勤模版2.xlsx
+++ b/Project.WebApplication/TemplateFile/考勤模版2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>海盐县妇幼保健院考勤表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,221 +47,97 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&amp;=[Table3].[day1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[day2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[day3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[day4]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[day6]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[day7]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[day8]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[day9]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[day10]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[day11]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[day12]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[day13]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[day14]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[day15]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[day31]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[day30]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[day29]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[day28]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[day27]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[day26]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[day25]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[day24]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[day23]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[day22]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[day21]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[day20]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[day19]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[day18]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[day17]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[day5]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[day16]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[week1]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[week2]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[week3]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[week4]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[week5]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[week6]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[week7]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[week8]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[week9]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[week10]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[week11]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[week12]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[week13]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[week14]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[week15]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[week16]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[week17]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[week18]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[week19]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[week20]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[week21]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[week22]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[week23]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[week24]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[week25]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[week26]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[week27]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[week28]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[week29]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[week30]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[week31]</t>
+    <t>&amp;=[Table3].[data1]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data2]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data3]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data4]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data5]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data6]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data7]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data8]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data9]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data10]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data11]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data12]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data13]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data14]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data15]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data16]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data17]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data18]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data19]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data20]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data21]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data22]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data23]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data24]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data25]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data26]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data27]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data28]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data29]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data30]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data31]</t>
   </si>
 </sst>
 </file>
@@ -617,7 +493,7 @@
   <dimension ref="A1:AH7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -699,97 +575,97 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="K4" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="L4" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="M4" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="N4" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="O4" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="P4" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="Q4" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="S4" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="T4" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="U4" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="V4" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="W4" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="X4" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="Y4" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="Z4" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="AA4" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="AB4" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="AC4" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="AD4" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="AE4" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="AF4" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="AG4" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="AH4" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -797,99 +673,6 @@
       <c r="B5" s="2"/>
       <c r="C5" t="s">
         <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>19</v>
-      </c>
-      <c r="R5" t="s">
-        <v>20</v>
-      </c>
-      <c r="S5" t="s">
-        <v>37</v>
-      </c>
-      <c r="T5" t="s">
-        <v>35</v>
-      </c>
-      <c r="U5" t="s">
-        <v>34</v>
-      </c>
-      <c r="V5" t="s">
-        <v>33</v>
-      </c>
-      <c r="W5" t="s">
-        <v>32</v>
-      </c>
-      <c r="X5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:34">

--- a/Project.WebApplication/TemplateFile/考勤模版2.xlsx
+++ b/Project.WebApplication/TemplateFile/考勤模版2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>海盐县妇幼保健院考勤表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,14 +31,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>星期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&amp;=$KS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -47,97 +39,205 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>&amp;=[Table3].[data2]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data3]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data4]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data5]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data6]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data7]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data8]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data9]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data10]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data11]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data12]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data13]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data14]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data15]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data16]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data17]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data18]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data19]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data20]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data21]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data22]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data23]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data24]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data25]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data26]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data27]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data28]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data29]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data30]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data31]</t>
+  </si>
+  <si>
     <t>&amp;=[Table3].[data1]</t>
   </si>
   <si>
-    <t>&amp;=[Table3].[data2]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data3]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data4]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data5]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data6]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data7]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data8]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data9]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data10]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data11]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data12]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data13]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data14]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data15]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data16]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data17]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data18]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data19]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data20]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data21]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data22]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data23]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data24]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data25]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data26]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data27]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data28]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data29]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data30]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data31]</t>
+    <t>&amp;=[Table4].[xh]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[EmployeeCode]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[EmployeeName]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data1]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data2]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data3]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data4]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data5]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data6]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data7]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data8]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data9]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data10]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data11]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data12]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data13]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data14]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data15]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data16]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data17]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data18]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data19]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data20]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data21]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data22]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data23]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data24]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data25]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data26]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data27]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data28]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data29]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data30]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data31]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[title]</t>
   </si>
 </sst>
 </file>
@@ -183,7 +283,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -195,6 +295,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -490,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH7"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -525,43 +628,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:34">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:34">
       <c r="C3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="39.75" customHeight="1">
@@ -572,209 +675,209 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>10</v>
       </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s">
         <v>11</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>12</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="s">
         <v>13</v>
       </c>
-      <c r="K4" t="s">
+      <c r="N4" t="s">
         <v>14</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" t="s">
         <v>15</v>
       </c>
-      <c r="M4" t="s">
+      <c r="P4" t="s">
         <v>16</v>
       </c>
-      <c r="N4" t="s">
+      <c r="Q4" t="s">
         <v>17</v>
       </c>
-      <c r="O4" t="s">
+      <c r="R4" t="s">
         <v>18</v>
       </c>
-      <c r="P4" t="s">
+      <c r="S4" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="T4" t="s">
         <v>20</v>
       </c>
-      <c r="R4" t="s">
+      <c r="U4" t="s">
         <v>21</v>
       </c>
-      <c r="S4" t="s">
+      <c r="V4" t="s">
         <v>22</v>
       </c>
-      <c r="T4" t="s">
+      <c r="W4" t="s">
         <v>23</v>
       </c>
-      <c r="U4" t="s">
+      <c r="X4" t="s">
         <v>24</v>
       </c>
-      <c r="V4" t="s">
+      <c r="Y4" t="s">
         <v>25</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Z4" t="s">
         <v>26</v>
       </c>
-      <c r="X4" t="s">
+      <c r="AA4" t="s">
         <v>27</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AB4" t="s">
         <v>28</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AC4" t="s">
         <v>29</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AD4" t="s">
         <v>30</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AE4" t="s">
         <v>31</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AF4" t="s">
         <v>32</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AG4" t="s">
         <v>33</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AH4" t="s">
         <v>34</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:34">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
       <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34">
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <v>4</v>
-      </c>
-      <c r="H7">
-        <v>5</v>
-      </c>
-      <c r="I7">
-        <v>6</v>
-      </c>
-      <c r="J7">
-        <v>7</v>
-      </c>
-      <c r="K7">
-        <v>8</v>
-      </c>
-      <c r="L7">
-        <v>9</v>
-      </c>
-      <c r="M7">
-        <v>10</v>
-      </c>
-      <c r="N7">
-        <v>11</v>
-      </c>
-      <c r="O7">
-        <v>12</v>
-      </c>
-      <c r="P7">
-        <v>13</v>
-      </c>
-      <c r="Q7">
-        <v>14</v>
-      </c>
-      <c r="R7">
-        <v>15</v>
-      </c>
-      <c r="S7">
-        <v>16</v>
-      </c>
-      <c r="T7">
-        <v>17</v>
-      </c>
-      <c r="U7">
-        <v>18</v>
-      </c>
-      <c r="V7">
-        <v>19</v>
-      </c>
-      <c r="W7">
-        <v>20</v>
-      </c>
-      <c r="X7">
-        <v>21</v>
-      </c>
-      <c r="Y7">
-        <v>22</v>
-      </c>
-      <c r="Z7">
-        <v>23</v>
-      </c>
-      <c r="AA7">
-        <v>24</v>
-      </c>
-      <c r="AB7">
-        <v>25</v>
-      </c>
-      <c r="AC7">
-        <v>26</v>
-      </c>
-      <c r="AD7">
-        <v>27</v>
-      </c>
-      <c r="AE7">
-        <v>28</v>
-      </c>
-      <c r="AF7">
-        <v>29</v>
-      </c>
-      <c r="AG7">
-        <v>30</v>
-      </c>
-      <c r="AH7">
-        <v>31</v>
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R5" t="s">
+        <v>53</v>
+      </c>
+      <c r="S5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T5" t="s">
+        <v>55</v>
+      </c>
+      <c r="U5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V5" t="s">
+        <v>57</v>
+      </c>
+      <c r="W5" t="s">
+        <v>58</v>
+      </c>
+      <c r="X5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="A1:M2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project.WebApplication/TemplateFile/考勤模版2.xlsx
+++ b/Project.WebApplication/TemplateFile/考勤模版2.xlsx
@@ -16,16 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
-  <si>
-    <t>海盐县妇幼保健院考勤表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序
-号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>员工编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,209 +26,221 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>&amp;=[Table3].[data2]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data3]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data4]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data5]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data6]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data7]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data8]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data9]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data10]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data11]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data12]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data13]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data14]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data15]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data16]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data17]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data18]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data19]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data20]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data21]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data22]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data23]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data24]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data25]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data26]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data27]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data28]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data29]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data30]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data31]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[data1]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[xh]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[EmployeeCode]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[EmployeeName]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data1]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data2]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data3]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data4]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data5]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data6]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data7]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data8]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data9]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data10]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data11]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data12]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data13]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data14]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data15]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data16]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data17]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data18]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data19]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data20]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data21]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data22]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data23]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data24]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data25]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data26]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data27]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data28]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data29]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data30]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table4].[data31]</t>
+  </si>
+  <si>
+    <t>&amp;=[Table3].[title]</t>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=$BM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                          </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>&amp;=$RQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data2]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data3]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data4]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data5]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data6]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data7]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data8]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data9]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data10]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data11]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data12]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data13]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data14]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data15]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data16]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data17]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data18]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data19]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data20]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data21]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data22]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data23]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data24]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data25]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data26]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data27]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data28]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data29]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data30]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data31]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[data1]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table4].[xh]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Table4].[EmployeeCode]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Table4].[EmployeeName]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Table4].[data1]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table4].[data2]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table4].[data3]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table4].[data4]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table4].[data5]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table4].[data6]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table4].[data7]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table4].[data8]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table4].[data9]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table4].[data10]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table4].[data11]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table4].[data12]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table4].[data13]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table4].[data14]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table4].[data15]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table4].[data16]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table4].[data17]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table4].[data18]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table4].[data19]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table4].[data20]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table4].[data21]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table4].[data22]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table4].[data23]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table4].[data24]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table4].[data25]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table4].[data26]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table4].[data27]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table4].[data28]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table4].[data29]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table4].[data30]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table4].[data31]</t>
-  </si>
-  <si>
-    <t>&amp;=[Table3].[title]</t>
   </si>
 </sst>
 </file>
@@ -283,7 +286,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -298,6 +301,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -595,54 +604,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="25.75" customWidth="1"/>
-    <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="20.25" customWidth="1"/>
-    <col min="5" max="5" width="23.25" customWidth="1"/>
-    <col min="6" max="6" width="20.125" customWidth="1"/>
-    <col min="7" max="7" width="18.625" customWidth="1"/>
-    <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="21.125" customWidth="1"/>
-    <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="11" max="11" width="20.875" customWidth="1"/>
-    <col min="12" max="12" width="19.25" customWidth="1"/>
-    <col min="13" max="13" width="21.25" customWidth="1"/>
-    <col min="14" max="14" width="21.75" customWidth="1"/>
-    <col min="15" max="15" width="21.25" customWidth="1"/>
-    <col min="16" max="16" width="19.625" customWidth="1"/>
-    <col min="17" max="18" width="20.625" customWidth="1"/>
-    <col min="19" max="19" width="21" customWidth="1"/>
-    <col min="20" max="20" width="18" customWidth="1"/>
-    <col min="25" max="25" width="18.75" customWidth="1"/>
-    <col min="26" max="26" width="20.125" customWidth="1"/>
-    <col min="32" max="32" width="25.25" customWidth="1"/>
-    <col min="33" max="33" width="23.125" customWidth="1"/>
-    <col min="34" max="34" width="25.125" customWidth="1"/>
+    <col min="2" max="2" width="9.875" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
       <c r="A1" s="4" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
+      <c r="G1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="5"/>
     </row>
     <row r="2" spans="1:34">
       <c r="A2" s="4"/>
@@ -651,233 +661,256 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="5"/>
     </row>
     <row r="3" spans="1:34">
       <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="Z3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" ht="19.5" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="G4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:34" ht="39.75" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
         <v>6</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>7</v>
       </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s">
         <v>8</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>9</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="s">
         <v>10</v>
       </c>
-      <c r="K4" t="s">
+      <c r="N4" t="s">
         <v>11</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" t="s">
         <v>12</v>
       </c>
-      <c r="M4" t="s">
+      <c r="P4" t="s">
         <v>13</v>
       </c>
-      <c r="N4" t="s">
+      <c r="Q4" t="s">
         <v>14</v>
       </c>
-      <c r="O4" t="s">
+      <c r="R4" t="s">
         <v>15</v>
       </c>
-      <c r="P4" t="s">
+      <c r="S4" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="T4" t="s">
         <v>17</v>
       </c>
-      <c r="R4" t="s">
+      <c r="U4" t="s">
         <v>18</v>
       </c>
-      <c r="S4" t="s">
+      <c r="V4" t="s">
         <v>19</v>
       </c>
-      <c r="T4" t="s">
+      <c r="W4" t="s">
         <v>20</v>
       </c>
-      <c r="U4" t="s">
+      <c r="X4" t="s">
         <v>21</v>
       </c>
-      <c r="V4" t="s">
+      <c r="Y4" t="s">
         <v>22</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Z4" t="s">
         <v>23</v>
       </c>
-      <c r="X4" t="s">
+      <c r="AA4" t="s">
         <v>24</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AB4" t="s">
         <v>25</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AC4" t="s">
         <v>26</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AD4" t="s">
         <v>27</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AE4" t="s">
         <v>28</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AF4" t="s">
         <v>29</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AG4" t="s">
         <v>30</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AH4" t="s">
         <v>31</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:34">
       <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
         <v>36</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
         <v>38</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
         <v>39</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>40</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
         <v>41</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5" t="s">
         <v>42</v>
       </c>
-      <c r="H5" t="s">
+      <c r="K5" t="s">
         <v>43</v>
       </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>44</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="s">
         <v>45</v>
       </c>
-      <c r="K5" t="s">
+      <c r="N5" t="s">
         <v>46</v>
       </c>
-      <c r="L5" t="s">
+      <c r="O5" t="s">
         <v>47</v>
       </c>
-      <c r="M5" t="s">
+      <c r="P5" t="s">
         <v>48</v>
       </c>
-      <c r="N5" t="s">
+      <c r="Q5" t="s">
         <v>49</v>
       </c>
-      <c r="O5" t="s">
+      <c r="R5" t="s">
         <v>50</v>
       </c>
-      <c r="P5" t="s">
+      <c r="S5" t="s">
         <v>51</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="T5" t="s">
         <v>52</v>
       </c>
-      <c r="R5" t="s">
+      <c r="U5" t="s">
         <v>53</v>
       </c>
-      <c r="S5" t="s">
+      <c r="V5" t="s">
         <v>54</v>
       </c>
-      <c r="T5" t="s">
+      <c r="W5" t="s">
         <v>55</v>
       </c>
-      <c r="U5" t="s">
+      <c r="X5" t="s">
         <v>56</v>
       </c>
-      <c r="V5" t="s">
+      <c r="Y5" t="s">
         <v>57</v>
       </c>
-      <c r="W5" t="s">
+      <c r="Z5" t="s">
         <v>58</v>
       </c>
-      <c r="X5" t="s">
+      <c r="AA5" t="s">
         <v>59</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="AB5" t="s">
         <v>60</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AC5" t="s">
         <v>61</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AD5" t="s">
         <v>62</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AE5" t="s">
         <v>63</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AF5" t="s">
         <v>64</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AG5" t="s">
         <v>65</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AH5" t="s">
         <v>66</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:M2"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="G1:AG2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
